--- a/data/trans_orig/P62A$jubilacion-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62A$jubilacion-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{994385B8-E53A-4CC4-9D2A-09A97546D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECF77E1-0CD0-4D2B-BCBA-A5DB87B006EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1049D1C-161D-49E7-A683-D8FAA1BF7EA0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8BE5DB13-DB71-4641-AB00-BECEACE5866C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="762">
-  <si>
-    <t>Población según tipo de pensión que percibe en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="856">
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -62,7 +62,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Jubilación</t>
@@ -101,7 +101,7 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>19,91%</t>
@@ -182,7 +182,7 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>32,15%</t>
@@ -278,7 +278,7 @@
     <t>23,05%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>40,09%</t>
@@ -380,7 +380,7 @@
     <t>14,95%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>83,27%</t>
@@ -482,1219 +482,1435 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de pensión que percibe en 2012</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Población según tipo de pensión que percibe en 2016</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>83,51%</t>
@@ -1793,16 +2009,16 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>Población según tipo de pensión que percibe en 2023</t>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -1814,517 +2030,583 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
 </sst>
 </file>
@@ -2736,8 +3018,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE4BB0C-26CF-4CF0-A790-C5A12787F9F9}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8D7CC-BF52-48E8-BA21-798E4601102E}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3500,10 +3782,10 @@
         <v>149</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>151</v>
@@ -3548,10 +3830,10 @@
         <v>161</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3560,31 +3842,31 @@
         <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3593,66 +3875,66 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3661,31 +3943,31 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3694,31 +3976,31 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3727,45 +4009,180 @@
         <v>15</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="F33" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3778,8 +4195,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A6E019-3756-4309-B0F5-57CF92ED525A}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C79C2BA-2FAE-4EA4-803C-033B2D100230}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3795,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3872,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -3881,7 +4298,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>9</v>
@@ -3890,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3905,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>9</v>
@@ -3914,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>9</v>
@@ -3923,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3932,13 +4349,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
@@ -3947,16 +4364,16 @@
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3965,10 +4382,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -3977,16 +4394,16 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
@@ -4006,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -4015,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -4024,7 +4441,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4033,13 +4450,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -4048,16 +4465,16 @@
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4066,31 +4483,31 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4099,31 +4516,31 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4134,13 +4551,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>9</v>
@@ -4149,16 +4566,16 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4173,25 +4590,25 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4200,31 +4617,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4233,31 +4650,31 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4268,31 +4685,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4307,25 +4724,25 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4334,31 +4751,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4367,31 +4784,31 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4402,31 +4819,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4441,25 +4858,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4468,31 +4885,31 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4501,31 +4918,31 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4536,31 +4953,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4569,31 +4986,31 @@
         <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4602,31 +5019,31 @@
         <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -4635,66 +5052,66 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4703,31 +5120,31 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>384</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4736,31 +5153,31 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>395</v>
+        <v>234</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4769,45 +5186,180 @@
         <v>15</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>401</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>408</v>
+        <v>286</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>214</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4820,8 +5372,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C54A28A-CCB8-42CF-9CB6-152FEEE6606E}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABDAEE9-7EB6-4D33-9AF2-D108D9A7C260}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4837,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4914,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -4923,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>9</v>
@@ -4932,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4947,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>9</v>
@@ -4956,7 +5508,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>9</v>
@@ -4965,7 +5517,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4980,7 +5532,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
@@ -4989,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>9</v>
@@ -4998,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5010,7 +5562,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>18</v>
@@ -5019,7 +5571,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>18</v>
@@ -5028,7 +5580,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -5042,13 +5594,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -5057,16 +5609,16 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5081,7 +5633,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -5090,7 +5642,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>9</v>
@@ -5099,7 +5651,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5108,16 +5660,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
@@ -5126,13 +5678,13 @@
         <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5141,31 +5693,31 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5176,31 +5728,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5209,31 +5761,31 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5242,31 +5794,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5275,31 +5827,31 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5310,31 +5862,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5349,25 +5901,25 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5376,31 +5928,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5412,28 +5964,28 @@
         <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5444,31 +5996,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5483,25 +6035,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5510,31 +6062,31 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5543,31 +6095,31 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5578,31 +6130,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>525</v>
+        <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5617,25 +6169,25 @@
         <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5644,31 +6196,31 @@
         <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>539</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>543</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5677,66 +6229,66 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>544</v>
+        <v>394</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5745,31 +6297,31 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>561</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>346</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>293</v>
+        <v>610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5778,31 +6330,31 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>569</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>572</v>
+        <v>416</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>575</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5811,45 +6363,180 @@
         <v>15</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>577</v>
+        <v>176</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>578</v>
+        <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>214</v>
+      <c r="I35" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -5862,8 +6549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB25CFE1-F555-4E85-B98C-D86343775942}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D4A21E-B7F3-4482-B3C3-1B34AE2C1ED0}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5879,7 +6566,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5974,7 +6661,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6007,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6034,7 +6721,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>9</v>
@@ -6067,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>9</v>
@@ -6090,7 +6777,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -6099,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -6108,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6117,31 +6804,31 @@
         <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6150,31 +6837,31 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>671</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6183,31 +6870,31 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6224,25 +6911,25 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>611</v>
+        <v>466</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6251,31 +6938,31 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>614</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6284,31 +6971,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6317,31 +7004,31 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>635</v>
+        <v>182</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6352,31 +7039,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>638</v>
+        <v>233</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>642</v>
+        <v>442</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>295</v>
+        <v>712</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6385,31 +7072,31 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>651</v>
+        <v>44</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6424,25 +7111,25 @@
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>655</v>
+        <v>723</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>656</v>
+        <v>724</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>657</v>
+        <v>725</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>658</v>
+        <v>726</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>660</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6451,31 +7138,31 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>661</v>
+        <v>728</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>662</v>
+        <v>729</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>664</v>
+        <v>731</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>666</v>
+        <v>733</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>667</v>
+        <v>734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>668</v>
+        <v>735</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>669</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6486,31 +7173,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>672</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>673</v>
+        <v>444</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>674</v>
+        <v>739</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>676</v>
+        <v>741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>677</v>
+        <v>742</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>678</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6519,31 +7206,31 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>679</v>
+        <v>744</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>680</v>
+        <v>745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>681</v>
+        <v>746</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>682</v>
+        <v>748</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>684</v>
+        <v>751</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>685</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6552,31 +7239,31 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>686</v>
+        <v>497</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>687</v>
+        <v>391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>753</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>754</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>690</v>
+        <v>365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>691</v>
+        <v>757</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6585,31 +7272,31 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>693</v>
+        <v>517</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>694</v>
+        <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>695</v>
+        <v>760</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>697</v>
+        <v>762</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>100</v>
+        <v>763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>698</v>
+        <v>764</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6620,31 +7307,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>700</v>
+        <v>766</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>701</v>
+        <v>767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>702</v>
+        <v>768</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>703</v>
+        <v>769</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>704</v>
+        <v>770</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>705</v>
+        <v>771</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>706</v>
+        <v>408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>708</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6653,31 +7340,31 @@
         <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>711</v>
+        <v>776</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>713</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>518</v>
+        <v>778</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>714</v>
+        <v>779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>715</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>716</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6686,31 +7373,31 @@
         <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>717</v>
+        <v>409</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>539</v>
+        <v>170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>718</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>719</v>
+        <v>781</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>720</v>
+        <v>782</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>721</v>
+        <v>783</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>722</v>
+        <v>780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6719,66 +7406,66 @@
         <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>725</v>
+        <v>786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>506</v>
+        <v>790</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>729</v>
+        <v>791</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>730</v>
+        <v>792</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>731</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>732</v>
+        <v>794</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>734</v>
+        <v>796</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>735</v>
+        <v>797</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>481</v>
+        <v>798</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>736</v>
+        <v>799</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>738</v>
+        <v>801</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>739</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6787,31 +7474,31 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>740</v>
+        <v>803</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>741</v>
+        <v>804</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>742</v>
+        <v>805</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>575</v>
+        <v>806</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>807</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>745</v>
+        <v>810</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>746</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6820,31 +7507,31 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>747</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6853,45 +7540,180 @@
         <v>15</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>757</v>
+        <v>821</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>760</v>
+        <v>824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>331</v>
+        <v>825</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>761</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>214</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
